--- a/Team5GanttChart.xlsx
+++ b/Team5GanttChart.xlsx
@@ -559,6 +559,32 @@
             <charset val="161"/>
           </rPr>
           <t xml:space="preserve">Bug fixing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BN16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">Δημιουργία πρόσθετης μικρο-εφαρμογής για την τεκμηρίωση του προγ/τος</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BN20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="161"/>
+          </rPr>
+          <t xml:space="preserve">Ολοκλήρωση τελικού παραδοτέου</t>
         </r>
       </text>
     </comment>
@@ -2194,9 +2220,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1901520</xdr:colOff>
+      <xdr:colOff>1901160</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>520560</xdr:rowOff>
+      <xdr:rowOff>520200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2212,7 +2238,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="95400"/>
-          <a:ext cx="1901520" cy="425160"/>
+          <a:ext cx="1901160" cy="424800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2406,8 +2432,8 @@
   </sheetPr>
   <dimension ref="A1:DW29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5519,7 +5545,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="92" t="n">
         <v>45397</v>
@@ -6275,7 +6301,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D831EB96-3910-4012-9D6F-5CFFEA5D395D}</x14:id>
+          <x14:id>{8C4000B0-3230-4C18-B018-5DB032DFADD6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6402,7 +6428,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D831EB96-3910-4012-9D6F-5CFFEA5D395D}">
+          <x14:cfRule type="dataBar" id="{8C4000B0-3230-4C18-B018-5DB032DFADD6}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6475,7 +6501,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="120" t="s">
         <v>36</v>
       </c>
@@ -6490,7 +6516,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="120" t="s">
         <v>39</v>
       </c>
@@ -6510,7 +6536,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="49.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="120" t="s">
         <v>43</v>
       </c>
